--- a/inst/extdata/Pathway_Embedding.xlsx
+++ b/inst/extdata/Pathway_Embedding.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huangyaqing/Desktop/GitHub/PathwayEmbedding/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14203032-147C-884B-BB3B-B1B9B7834FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1C5044-5852-5F4E-9C07-3E9A823F834A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="760" windowWidth="29400" windowHeight="17200" firstSheet="1" activeTab="5" xr2:uid="{4F2C48FB-5C4A-5F4C-A80D-28B50AF3CCC3}"/>
+    <workbookView xWindow="16980" yWindow="760" windowWidth="29400" windowHeight="17200" firstSheet="1" activeTab="5" xr2:uid="{4F2C48FB-5C4A-5F4C-A80D-28B50AF3CCC3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hippo" sheetId="1" r:id="rId1"/>
@@ -2137,10 +2137,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D23EC4A-43E8-FF43-9206-49A456C485B5}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="111" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2398,7 +2398,7 @@
         <v>77</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C23" t="s">
         <v>137</v>
@@ -2409,7 +2409,7 @@
         <v>78</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C24" t="s">
         <v>137</v>
@@ -2431,7 +2431,7 @@
         <v>139</v>
       </c>
       <c r="B26">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C26" t="s">
         <v>137</v>
@@ -2453,7 +2453,7 @@
         <v>141</v>
       </c>
       <c r="B28">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C28" t="s">
         <v>137</v>
@@ -2491,6 +2491,9 @@
       <c r="C31" t="s">
         <v>171</v>
       </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/inst/extdata/Pathway_Embedding.xlsx
+++ b/inst/extdata/Pathway_Embedding.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huangyaqing/Desktop/GitHub/PathwayEmbedding/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1C5044-5852-5F4E-9C07-3E9A823F834A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9439BDC-11D3-9A4C-800D-EF4A5216D061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16980" yWindow="760" windowWidth="29400" windowHeight="17200" firstSheet="1" activeTab="5" xr2:uid="{4F2C48FB-5C4A-5F4C-A80D-28B50AF3CCC3}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17180" activeTab="6" xr2:uid="{4F2C48FB-5C4A-5F4C-A80D-28B50AF3CCC3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hippo" sheetId="1" r:id="rId1"/>
@@ -24,15 +24,15 @@
     <sheet name="Pdgfb" sheetId="10" r:id="rId9"/>
     <sheet name="ErbB" sheetId="5" r:id="rId10"/>
     <sheet name="Ras" sheetId="6" r:id="rId11"/>
-    <sheet name="Rab1" sheetId="7" r:id="rId12"/>
-    <sheet name="Apelin" sheetId="11" r:id="rId13"/>
-    <sheet name="JAK-STAT" sheetId="12" r:id="rId14"/>
-    <sheet name="Nfkb" sheetId="13" r:id="rId15"/>
-    <sheet name="TNF" sheetId="14" r:id="rId16"/>
-    <sheet name="Foxo" sheetId="16" r:id="rId17"/>
-    <sheet name="mTOR" sheetId="18" r:id="rId18"/>
-    <sheet name="AMPK" sheetId="19" r:id="rId19"/>
-    <sheet name="cGMP-PKG" sheetId="20" r:id="rId20"/>
+    <sheet name="Apelin" sheetId="11" r:id="rId12"/>
+    <sheet name="JAK-STAT" sheetId="12" r:id="rId13"/>
+    <sheet name="Nfkb" sheetId="13" r:id="rId14"/>
+    <sheet name="TNF" sheetId="14" r:id="rId15"/>
+    <sheet name="Foxo" sheetId="16" r:id="rId16"/>
+    <sheet name="mTOR" sheetId="18" r:id="rId17"/>
+    <sheet name="AMPK" sheetId="19" r:id="rId18"/>
+    <sheet name="cGMP-PKG" sheetId="20" r:id="rId19"/>
+    <sheet name="Sheet1" sheetId="22" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="193">
   <si>
     <t xml:space="preserve">Molecules </t>
   </si>
@@ -84,22 +84,10 @@
     <t>Tead4</t>
   </si>
   <si>
-    <t>Taok1</t>
-  </si>
-  <si>
-    <t>Ccn2</t>
-  </si>
-  <si>
-    <t>Nf2</t>
-  </si>
-  <si>
     <t>Lats2</t>
   </si>
   <si>
     <t>Lats1</t>
-  </si>
-  <si>
-    <t>Igf1</t>
   </si>
   <si>
     <t>Lgr5</t>
@@ -572,6 +560,81 @@
   </si>
   <si>
     <t>receptor</t>
+  </si>
+  <si>
+    <t>https://www.nature.com/articles/s41392-022-01191-9</t>
+  </si>
+  <si>
+    <t>Strn1</t>
+  </si>
+  <si>
+    <t>Strn2</t>
+  </si>
+  <si>
+    <t>Strn3</t>
+  </si>
+  <si>
+    <t>Strn4</t>
+  </si>
+  <si>
+    <t>Mst1</t>
+  </si>
+  <si>
+    <t>Mst2</t>
+  </si>
+  <si>
+    <t>Map4k1</t>
+  </si>
+  <si>
+    <t>Map4k2</t>
+  </si>
+  <si>
+    <t>Map4k3</t>
+  </si>
+  <si>
+    <t>Map4k4</t>
+  </si>
+  <si>
+    <t>Map4k5</t>
+  </si>
+  <si>
+    <t>Map4k6</t>
+  </si>
+  <si>
+    <t>Map4k7</t>
+  </si>
+  <si>
+    <t>Sav1</t>
+  </si>
+  <si>
+    <t>Mob1a</t>
+  </si>
+  <si>
+    <t>Mob1b</t>
+  </si>
+  <si>
+    <t>Wwc1</t>
+  </si>
+  <si>
+    <t>Wwc2</t>
+  </si>
+  <si>
+    <t>Wwc3</t>
+  </si>
+  <si>
+    <t>Wwtr1</t>
+  </si>
+  <si>
+    <t>being degraded</t>
+  </si>
+  <si>
+    <t>inhibited use</t>
+  </si>
+  <si>
+    <t>enzyme used</t>
+  </si>
+  <si>
+    <t>STRIPAKs</t>
   </si>
 </sst>
 </file>
@@ -963,10 +1026,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B474D2BA-E499-5C49-98AA-F47251D1ECC8}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -992,58 +1055,83 @@
       <c r="B2">
         <v>1</v>
       </c>
+      <c r="C2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>188</v>
       </c>
       <c r="B3">
-        <v>-1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1051,29 +1139,172 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>169</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>170</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>171</v>
       </c>
       <c r="B12">
         <v>-1</v>
       </c>
+      <c r="C12" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>172</v>
+      </c>
+      <c r="B13">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>173</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>174</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>175</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>176</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>177</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>178</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>179</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>182</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>183</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>184</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>185</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>186</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>187</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{5D56896A-B5F4-FA48-8875-241A5BEA3FA2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1241,131 +1472,6 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A80496C7-F98B-0849-A1A5-BC763ACFC056}">
-  <dimension ref="A1:C12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1">
-        <v>-1</v>
-      </c>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1">
-        <v>-1</v>
-      </c>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1">
-        <v>-1</v>
-      </c>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="1">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="1">
-        <v>-1</v>
-      </c>
-      <c r="C12" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2AFE875-2C80-1449-84C1-7B87BD2FDFAA}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1377,7 +1483,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C5CDFB6-5BD1-264D-A1DC-AA15037AA227}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1389,7 +1495,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFC75C96-A02C-5941-A5BD-7F818BFC7CC8}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1401,7 +1507,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{116211A4-868D-5847-9628-131EEAD7A871}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1413,7 +1519,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BBE504A-319E-0C48-94B0-7AD00E37C783}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1425,7 +1531,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F9532F8-7D23-2F4E-8CED-08A3F463F309}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1437,8 +1543,20 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8C6AF7A-DEAA-8140-8D24-C250E8F6F204}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8C6AF7A-DEAA-8140-8D24-C250E8F6F204}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4835A2C-D3ED-1340-9BDF-F77CE670DF3B}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1470,23 +1588,23 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1494,7 +1612,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1502,7 +1620,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1510,7 +1628,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1518,7 +1636,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1526,7 +1644,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1534,7 +1652,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1542,7 +1660,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1550,7 +1668,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1558,7 +1676,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1566,7 +1684,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1574,7 +1692,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1582,7 +1700,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1590,7 +1708,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -1598,7 +1716,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -1606,7 +1724,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -1614,7 +1732,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>-1</v>
@@ -1629,7 +1747,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4835A2C-D3ED-1340-9BDF-F77CE670DF3B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEBC8247-C426-A142-8BB5-48DADB41453C}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1661,24 +1779,24 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -1687,7 +1805,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -1696,7 +1814,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
@@ -1705,57 +1823,57 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1803,18 +1921,18 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -1822,7 +1940,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -1830,40 +1948,40 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -1871,63 +1989,63 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D12" t="s">
         <v>151</v>
-      </c>
-      <c r="B12" s="1">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>152</v>
-      </c>
-      <c r="D12" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D13" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -1940,7 +2058,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1956,36 +2074,36 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B3" s="1">
         <v>-1</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B4" s="1">
         <v>-1</v>
@@ -1994,7 +2112,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B5" s="1">
         <v>-1</v>
@@ -2003,7 +2121,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B6" s="1">
         <v>-1</v>
@@ -2012,7 +2130,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B7" s="1">
         <v>-1</v>
@@ -2021,7 +2139,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -2030,7 +2148,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
@@ -2039,7 +2157,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
@@ -2048,7 +2166,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
@@ -2057,7 +2175,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B12" s="1">
         <v>-1</v>
@@ -2065,7 +2183,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B13" s="1">
         <v>-1</v>
@@ -2073,7 +2191,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
@@ -2081,7 +2199,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B15" s="1">
         <v>-1</v>
@@ -2089,7 +2207,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B16" s="1">
         <v>1</v>
@@ -2097,7 +2215,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B17" s="1">
         <v>-1</v>
@@ -2105,7 +2223,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B18" s="1">
         <v>-1</v>
@@ -2113,7 +2231,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B19" s="1">
         <v>1</v>
@@ -2121,7 +2239,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B20" s="1">
         <v>1</v>
@@ -2139,8 +2257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D23EC4A-43E8-FF43-9206-49A456C485B5}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView zoomScale="111" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2158,338 +2276,338 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B5" s="1">
         <v>-1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B6" s="1">
         <v>-1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B23">
         <v>-1</v>
       </c>
       <c r="C23" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B24">
         <v>-1</v>
       </c>
       <c r="C24" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B25">
         <v>-1</v>
       </c>
       <c r="C25" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B27">
         <v>-1</v>
       </c>
       <c r="C27" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -2508,8 +2626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A04DAD11-88AE-F540-8710-27946DC47501}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView zoomScale="144" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" zoomScale="144" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2525,167 +2643,167 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B10" s="1">
         <v>-1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B11" s="1">
         <v>-1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B12" s="1">
         <v>-1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B15" s="1">
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2702,7 +2820,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView zoomScale="157" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2718,23 +2836,23 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2742,7 +2860,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -2750,7 +2868,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -2758,18 +2876,18 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B6">
         <v>-1</v>
       </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -2777,7 +2895,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -2785,51 +2903,51 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B11">
         <v>-1</v>
       </c>
       <c r="C11" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B12">
         <v>-1</v>
       </c>
       <c r="C12" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -2837,7 +2955,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -2845,7 +2963,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B15">
         <v>-1</v>
@@ -2853,7 +2971,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B16">
         <v>-1</v>
@@ -2861,7 +2979,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -2898,7 +3016,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -2907,21 +3025,21 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>

--- a/inst/extdata/Pathway_Embedding.xlsx
+++ b/inst/extdata/Pathway_Embedding.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huangyaqing/Desktop/GitHub/PathwayEmbedding/inst/extdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huangyaqing/Documents/GitHub/FunLearning/PathwayEmbed/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9439BDC-11D3-9A4C-800D-EF4A5216D061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1850F791-6810-B54F-A5D8-366162A82CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17180" activeTab="6" xr2:uid="{4F2C48FB-5C4A-5F4C-A80D-28B50AF3CCC3}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16940" activeTab="5" xr2:uid="{4F2C48FB-5C4A-5F4C-A80D-28B50AF3CCC3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hippo" sheetId="1" r:id="rId1"/>
@@ -690,7 +690,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1028,8 +1030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B474D2BA-E499-5C49-98AA-F47251D1ECC8}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A2" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1572,7 +1574,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1763,7 +1765,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2058,7 +2060,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2089,7 +2091,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>41</v>
       </c>
@@ -2257,8 +2259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D23EC4A-43E8-FF43-9206-49A456C485B5}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView zoomScale="111" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2505,7 +2507,7 @@
         <v>72</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C22" t="s">
         <v>133</v>
@@ -2549,7 +2551,7 @@
         <v>135</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C26" t="s">
         <v>133</v>
@@ -2571,7 +2573,7 @@
         <v>137</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C28" t="s">
         <v>133</v>
@@ -2626,7 +2628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A04DAD11-88AE-F540-8710-27946DC47501}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="144" workbookViewId="0">
+    <sheetView zoomScale="144" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
